--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -442,34 +442,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>68.9191298678415</v>
+        <v>58.3687809451867</v>
       </c>
       <c r="C2" t="n">
-        <v>43.8561973166756</v>
+        <v>48.8849102950605</v>
       </c>
       <c r="D2" t="n">
-        <v>89.5340829412168</v>
+        <v>74.201474861221</v>
       </c>
       <c r="E2" t="n">
-        <v>44.4839857651246</v>
+        <v>57.4895712371069</v>
       </c>
       <c r="F2" t="n">
-        <v>60.9535123039105</v>
+        <v>49.5449102816059</v>
       </c>
       <c r="G2" t="n">
-        <v>84.5114160375521</v>
+        <v>84.4503307037106</v>
       </c>
       <c r="H2" t="n">
-        <v>70.8297587374607</v>
+        <v>65.7641470818065</v>
       </c>
       <c r="I2" t="n">
-        <v>71.8852175635752</v>
+        <v>73.1627422134841</v>
       </c>
       <c r="J2" t="n">
-        <v>51.1382181838328</v>
+        <v>50.2149155370942</v>
       </c>
       <c r="K2" t="n">
-        <v>57.5219412043056</v>
+        <v>49.1759752723299</v>
       </c>
     </row>
     <row r="3">
@@ -477,34 +477,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5440344520105</v>
+        <v>28.0983111257431</v>
       </c>
       <c r="C3" t="n">
-        <v>25.7705517017921</v>
+        <v>24.7343830328542</v>
       </c>
       <c r="D3" t="n">
-        <v>32.919430531924</v>
+        <v>31.8806712446203</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2307692307692</v>
+        <v>30.7338634906238</v>
       </c>
       <c r="F3" t="n">
-        <v>34.7752328545655</v>
+        <v>32.0466849534008</v>
       </c>
       <c r="G3" t="n">
-        <v>44.2406963995702</v>
+        <v>44.7490913750926</v>
       </c>
       <c r="H3" t="n">
-        <v>28.734197049923</v>
+        <v>29.3424910542222</v>
       </c>
       <c r="I3" t="n">
-        <v>23.3140376726054</v>
+        <v>25.3749730927999</v>
       </c>
       <c r="J3" t="n">
-        <v>28.1226794163294</v>
+        <v>28.8705617862581</v>
       </c>
       <c r="K3" t="n">
-        <v>47.6450046907074</v>
+        <v>45.3232561771689</v>
       </c>
     </row>
     <row r="4">
@@ -512,34 +512,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>43.4349344205629</v>
+        <v>43.4497018132177</v>
       </c>
       <c r="C4" t="n">
-        <v>41.643801701884</v>
+        <v>37.3066014028881</v>
       </c>
       <c r="D4" t="n">
-        <v>46.3397371700122</v>
+        <v>42.6118118202031</v>
       </c>
       <c r="E4" t="n">
-        <v>34.6939759036145</v>
+        <v>37.2567879409896</v>
       </c>
       <c r="F4" t="n">
-        <v>37.2036277712602</v>
+        <v>41.4842433226089</v>
       </c>
       <c r="G4" t="n">
-        <v>53.9631306292741</v>
+        <v>54.572257848152</v>
       </c>
       <c r="H4" t="n">
-        <v>43.4656591255881</v>
+        <v>44.2617708760319</v>
       </c>
       <c r="I4" t="n">
-        <v>50.2684593832825</v>
+        <v>40.3187741846308</v>
       </c>
       <c r="J4" t="n">
-        <v>41.1177423525112</v>
+        <v>41.4598451519837</v>
       </c>
       <c r="K4" t="n">
-        <v>57.7087123777162</v>
+        <v>44.0522950263322</v>
       </c>
     </row>
     <row r="5">
@@ -547,34 +547,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>83.2769577000596</v>
+        <v>79.2172926112797</v>
       </c>
       <c r="C5" t="n">
-        <v>73.7776805087992</v>
+        <v>76.1415569927894</v>
       </c>
       <c r="D5" t="n">
-        <v>79.6346385802911</v>
+        <v>79.4685372403072</v>
       </c>
       <c r="E5" t="n">
-        <v>55.1330798479087</v>
+        <v>70.7273722780202</v>
       </c>
       <c r="F5" t="n">
-        <v>76.4224715919422</v>
+        <v>71.8801908296159</v>
       </c>
       <c r="G5" t="n">
-        <v>88.2444411188671</v>
+        <v>88.0362728009305</v>
       </c>
       <c r="H5" t="n">
-        <v>69.9870841312594</v>
+        <v>70.1108947890267</v>
       </c>
       <c r="I5" t="n">
-        <v>79.925235737027</v>
+        <v>72.3911380335843</v>
       </c>
       <c r="J5" t="n">
-        <v>57.0020320757786</v>
+        <v>59.8699761297328</v>
       </c>
       <c r="K5" t="n">
-        <v>89.5052643455372</v>
+        <v>66.0721983664074</v>
       </c>
     </row>
     <row r="6">
@@ -582,34 +582,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>75.1021760153459</v>
+        <v>59.9088248771922</v>
       </c>
       <c r="C6" t="n">
-        <v>74.1457027551676</v>
+        <v>64.5501299065432</v>
       </c>
       <c r="D6" t="n">
-        <v>92.2255090489955</v>
+        <v>79.4530381277022</v>
       </c>
       <c r="E6" t="n">
-        <v>78.4313725490196</v>
+        <v>62.5242731445997</v>
       </c>
       <c r="F6" t="n">
-        <v>79.1486974708192</v>
+        <v>58.8160974105242</v>
       </c>
       <c r="G6" t="n">
-        <v>88.5544512178713</v>
+        <v>87.2110712092897</v>
       </c>
       <c r="H6" t="n">
-        <v>79.8579927901068</v>
+        <v>76.9294368973077</v>
       </c>
       <c r="I6" t="n">
-        <v>72.2997350007419</v>
+        <v>74.9580713561081</v>
       </c>
       <c r="J6" t="n">
-        <v>66.1643142092702</v>
+        <v>70.1139236471705</v>
       </c>
       <c r="K6" t="n">
-        <v>79.6515644133716</v>
+        <v>54.6983814392583</v>
       </c>
     </row>
     <row r="7">
@@ -617,34 +617,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>76.6688299611329</v>
+        <v>76.0500881133356</v>
       </c>
       <c r="C7" t="n">
-        <v>77.2505560087666</v>
+        <v>75.8618127980539</v>
       </c>
       <c r="D7" t="n">
-        <v>84.1738661158664</v>
+        <v>80.9490412766813</v>
       </c>
       <c r="E7" t="n">
-        <v>57.9545454545455</v>
+        <v>67.7841401466591</v>
       </c>
       <c r="F7" t="n">
-        <v>75.0906930285769</v>
+        <v>56.2619372634919</v>
       </c>
       <c r="G7" t="n">
-        <v>85.6590169079531</v>
+        <v>86.974581204702</v>
       </c>
       <c r="H7" t="n">
-        <v>74.9223952011629</v>
+        <v>79.3845222480011</v>
       </c>
       <c r="I7" t="n">
-        <v>46.5808087326347</v>
+        <v>52.2846998626103</v>
       </c>
       <c r="J7" t="n">
-        <v>60.4528492482926</v>
+        <v>70.821798823452</v>
       </c>
       <c r="K7" t="n">
-        <v>68.921994195011</v>
+        <v>56.5226745460006</v>
       </c>
     </row>
     <row r="8">
@@ -652,34 +652,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>69.7458945794952</v>
+        <v>73.6647609454859</v>
       </c>
       <c r="C8" t="n">
-        <v>62.4692418859929</v>
+        <v>62.9236462887567</v>
       </c>
       <c r="D8" t="n">
-        <v>90.658692697538</v>
+        <v>82.5778518939202</v>
       </c>
       <c r="E8" t="n">
-        <v>56.390977443609</v>
+        <v>67.5758568401985</v>
       </c>
       <c r="F8" t="n">
-        <v>43.0212285799268</v>
+        <v>62.1475253244649</v>
       </c>
       <c r="G8" t="n">
-        <v>90.517648562136</v>
+        <v>85.8327777598929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.882248165969</v>
+        <v>68.7598853246759</v>
       </c>
       <c r="I8" t="n">
-        <v>47.8610314282717</v>
+        <v>55.1757110868948</v>
       </c>
       <c r="J8" t="n">
-        <v>60.4537631893693</v>
+        <v>57.9992651628614</v>
       </c>
       <c r="K8" t="n">
-        <v>54.5249007779869</v>
+        <v>59.3704596101895</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -442,34 +442,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>58.3687809451867</v>
+        <v>64.250623083954</v>
       </c>
       <c r="C2" t="n">
-        <v>48.8849102950605</v>
+        <v>53.7409098612412</v>
       </c>
       <c r="D2" t="n">
-        <v>74.201474861221</v>
+        <v>75.6114652859503</v>
       </c>
       <c r="E2" t="n">
-        <v>57.4895712371069</v>
+        <v>57.5335226072956</v>
       </c>
       <c r="F2" t="n">
-        <v>49.5449102816059</v>
+        <v>48.0155518944592</v>
       </c>
       <c r="G2" t="n">
-        <v>84.4503307037106</v>
+        <v>84.3380432623891</v>
       </c>
       <c r="H2" t="n">
-        <v>65.7641470818065</v>
+        <v>63.7839502394559</v>
       </c>
       <c r="I2" t="n">
-        <v>73.1627422134841</v>
+        <v>64.5035458559718</v>
       </c>
       <c r="J2" t="n">
-        <v>50.2149155370942</v>
+        <v>54.6463376857384</v>
       </c>
       <c r="K2" t="n">
-        <v>49.1759752723299</v>
+        <v>47.6259730104953</v>
       </c>
     </row>
     <row r="3">
@@ -477,34 +477,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>28.0983111257431</v>
+        <v>28.0327920637749</v>
       </c>
       <c r="C3" t="n">
-        <v>24.7343830328542</v>
+        <v>24.2677521641797</v>
       </c>
       <c r="D3" t="n">
-        <v>31.8806712446203</v>
+        <v>29.499120537839</v>
       </c>
       <c r="E3" t="n">
-        <v>30.7338634906238</v>
+        <v>30.7964256295476</v>
       </c>
       <c r="F3" t="n">
-        <v>32.0466849534008</v>
+        <v>32.294256431363</v>
       </c>
       <c r="G3" t="n">
-        <v>44.7490913750926</v>
+        <v>45.291373979237</v>
       </c>
       <c r="H3" t="n">
-        <v>29.3424910542222</v>
+        <v>29.3982179553451</v>
       </c>
       <c r="I3" t="n">
-        <v>25.3749730927999</v>
+        <v>25.3832571311288</v>
       </c>
       <c r="J3" t="n">
-        <v>28.8705617862581</v>
+        <v>28.8591089308659</v>
       </c>
       <c r="K3" t="n">
-        <v>45.3232561771689</v>
+        <v>42.4040946837611</v>
       </c>
     </row>
     <row r="4">
@@ -512,34 +512,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>43.4497018132177</v>
+        <v>44.6898148665286</v>
       </c>
       <c r="C4" t="n">
-        <v>37.3066014028881</v>
+        <v>38.7842561350501</v>
       </c>
       <c r="D4" t="n">
-        <v>42.6118118202031</v>
+        <v>44.370617045058</v>
       </c>
       <c r="E4" t="n">
-        <v>37.2567879409896</v>
+        <v>37.2281838448364</v>
       </c>
       <c r="F4" t="n">
-        <v>41.4842433226089</v>
+        <v>41.7048669024782</v>
       </c>
       <c r="G4" t="n">
-        <v>54.572257848152</v>
+        <v>54.9042600841208</v>
       </c>
       <c r="H4" t="n">
-        <v>44.2617708760319</v>
+        <v>43.9428615425684</v>
       </c>
       <c r="I4" t="n">
-        <v>40.3187741846308</v>
+        <v>43.8248904709614</v>
       </c>
       <c r="J4" t="n">
-        <v>41.4598451519837</v>
+        <v>44.8409655646873</v>
       </c>
       <c r="K4" t="n">
-        <v>44.0522950263322</v>
+        <v>43.1563898238002</v>
       </c>
     </row>
     <row r="5">
@@ -547,34 +547,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>79.2172926112797</v>
+        <v>72.1888822593033</v>
       </c>
       <c r="C5" t="n">
-        <v>76.1415569927894</v>
+        <v>79.1424102055209</v>
       </c>
       <c r="D5" t="n">
-        <v>79.4685372403072</v>
+        <v>80.6061731494686</v>
       </c>
       <c r="E5" t="n">
-        <v>70.7273722780202</v>
+        <v>70.3649688948398</v>
       </c>
       <c r="F5" t="n">
-        <v>71.8801908296159</v>
+        <v>72.5315089483971</v>
       </c>
       <c r="G5" t="n">
-        <v>88.0362728009305</v>
+        <v>89.2630395702026</v>
       </c>
       <c r="H5" t="n">
-        <v>70.1108947890267</v>
+        <v>70.9725010591962</v>
       </c>
       <c r="I5" t="n">
-        <v>72.3911380335843</v>
+        <v>80.2921625022916</v>
       </c>
       <c r="J5" t="n">
-        <v>59.8699761297328</v>
+        <v>60.367746807593</v>
       </c>
       <c r="K5" t="n">
-        <v>66.0721983664074</v>
+        <v>61.3190097859686</v>
       </c>
     </row>
     <row r="6">
@@ -582,34 +582,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>59.9088248771922</v>
+        <v>60.414441640184</v>
       </c>
       <c r="C6" t="n">
-        <v>64.5501299065432</v>
+        <v>69.2167931622265</v>
       </c>
       <c r="D6" t="n">
-        <v>79.4530381277022</v>
+        <v>76.402362411018</v>
       </c>
       <c r="E6" t="n">
-        <v>62.5242731445997</v>
+        <v>63.0666968689808</v>
       </c>
       <c r="F6" t="n">
-        <v>58.8160974105242</v>
+        <v>59.3338755591008</v>
       </c>
       <c r="G6" t="n">
-        <v>87.2110712092897</v>
+        <v>86.8668628355021</v>
       </c>
       <c r="H6" t="n">
-        <v>76.9294368973077</v>
+        <v>76.4978780580193</v>
       </c>
       <c r="I6" t="n">
-        <v>74.9580713561081</v>
+        <v>67.8231464642976</v>
       </c>
       <c r="J6" t="n">
-        <v>70.1139236471705</v>
+        <v>68.7158186636906</v>
       </c>
       <c r="K6" t="n">
-        <v>54.6983814392583</v>
+        <v>55.7762638731718</v>
       </c>
     </row>
     <row r="7">
@@ -617,34 +617,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>76.0500881133356</v>
+        <v>77.1098600012077</v>
       </c>
       <c r="C7" t="n">
-        <v>75.8618127980539</v>
+        <v>76.9084352386876</v>
       </c>
       <c r="D7" t="n">
-        <v>80.9490412766813</v>
+        <v>83.596654741558</v>
       </c>
       <c r="E7" t="n">
-        <v>67.7841401466591</v>
+        <v>68.2575327407304</v>
       </c>
       <c r="F7" t="n">
-        <v>56.2619372634919</v>
+        <v>56.6504911211525</v>
       </c>
       <c r="G7" t="n">
-        <v>86.974581204702</v>
+        <v>87.6160911546928</v>
       </c>
       <c r="H7" t="n">
-        <v>79.3845222480011</v>
+        <v>76.7597594944841</v>
       </c>
       <c r="I7" t="n">
-        <v>52.2846998626103</v>
+        <v>63.3953440855902</v>
       </c>
       <c r="J7" t="n">
-        <v>70.821798823452</v>
+        <v>67.0603338366483</v>
       </c>
       <c r="K7" t="n">
-        <v>56.5226745460006</v>
+        <v>57.0538630080154</v>
       </c>
     </row>
     <row r="8">
@@ -652,34 +652,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>73.6647609454859</v>
+        <v>76.2733353729203</v>
       </c>
       <c r="C8" t="n">
-        <v>62.9236462887567</v>
+        <v>62.2879094164706</v>
       </c>
       <c r="D8" t="n">
-        <v>82.5778518939202</v>
+        <v>82.0338845276832</v>
       </c>
       <c r="E8" t="n">
-        <v>67.5758568401985</v>
+        <v>67.0645142503371</v>
       </c>
       <c r="F8" t="n">
-        <v>62.1475253244649</v>
+        <v>61.8966284979516</v>
       </c>
       <c r="G8" t="n">
-        <v>85.8327777598929</v>
+        <v>86.8214391306789</v>
       </c>
       <c r="H8" t="n">
-        <v>68.7598853246759</v>
+        <v>69.0022256508678</v>
       </c>
       <c r="I8" t="n">
-        <v>55.1757110868948</v>
+        <v>63.1254517516158</v>
       </c>
       <c r="J8" t="n">
-        <v>57.9992651628614</v>
+        <v>61.2454933195732</v>
       </c>
       <c r="K8" t="n">
-        <v>59.3704596101895</v>
+        <v>57.3626811841157</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -12,39 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
@@ -427,258 +418,186 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>64.250623083954</v>
+        <v>56.3639868952022</v>
       </c>
       <c r="C2" t="n">
-        <v>53.7409098612412</v>
+        <v>60.5569946089801</v>
       </c>
       <c r="D2" t="n">
-        <v>75.6114652859503</v>
+        <v>54.6463376857384</v>
       </c>
       <c r="E2" t="n">
+        <v>64.5035458559718</v>
+      </c>
+      <c r="F2" t="n">
         <v>57.5335226072956</v>
-      </c>
-      <c r="F2" t="n">
-        <v>48.0155518944592</v>
       </c>
       <c r="G2" t="n">
         <v>84.3380432623891</v>
       </c>
       <c r="H2" t="n">
-        <v>63.7839502394559</v>
-      </c>
-      <c r="I2" t="n">
-        <v>64.5035458559718</v>
-      </c>
-      <c r="J2" t="n">
-        <v>54.6463376857384</v>
-      </c>
-      <c r="K2" t="n">
         <v>47.6259730104953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>28.0327920637749</v>
+        <v>34.3455077975836</v>
       </c>
       <c r="C3" t="n">
-        <v>24.2677521641797</v>
+        <v>28.0355158596464</v>
       </c>
       <c r="D3" t="n">
-        <v>29.499120537839</v>
+        <v>28.8591089308659</v>
       </c>
       <c r="E3" t="n">
+        <v>25.3832571311288</v>
+      </c>
+      <c r="F3" t="n">
         <v>30.7964256295476</v>
-      </c>
-      <c r="F3" t="n">
-        <v>32.294256431363</v>
       </c>
       <c r="G3" t="n">
         <v>45.291373979237</v>
       </c>
       <c r="H3" t="n">
-        <v>29.3982179553451</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25.3832571311288</v>
-      </c>
-      <c r="J3" t="n">
-        <v>28.8591089308659</v>
-      </c>
-      <c r="K3" t="n">
         <v>42.4040946837611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>44.6898148665286</v>
+        <v>42.5574333274623</v>
       </c>
       <c r="C4" t="n">
-        <v>38.7842561350501</v>
+        <v>42.4505444046913</v>
       </c>
       <c r="D4" t="n">
-        <v>44.370617045058</v>
+        <v>44.8409655646873</v>
       </c>
       <c r="E4" t="n">
+        <v>43.8248904709614</v>
+      </c>
+      <c r="F4" t="n">
         <v>37.2281838448364</v>
-      </c>
-      <c r="F4" t="n">
-        <v>41.7048669024782</v>
       </c>
       <c r="G4" t="n">
         <v>54.9042600841208</v>
       </c>
       <c r="H4" t="n">
-        <v>43.9428615425684</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43.8248904709614</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44.8409655646873</v>
-      </c>
-      <c r="K4" t="n">
         <v>43.1563898238002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>72.1888822593033</v>
+        <v>68.4797846013269</v>
       </c>
       <c r="C5" t="n">
-        <v>79.1424102055209</v>
+        <v>75.7172971994228</v>
       </c>
       <c r="D5" t="n">
-        <v>80.6061731494686</v>
+        <v>60.367746807593</v>
       </c>
       <c r="E5" t="n">
+        <v>80.2921625022916</v>
+      </c>
+      <c r="F5" t="n">
         <v>70.3649688948398</v>
-      </c>
-      <c r="F5" t="n">
-        <v>72.5315089483971</v>
       </c>
       <c r="G5" t="n">
         <v>89.2630395702026</v>
       </c>
       <c r="H5" t="n">
-        <v>70.9725010591962</v>
-      </c>
-      <c r="I5" t="n">
-        <v>80.2921625022916</v>
-      </c>
-      <c r="J5" t="n">
-        <v>60.367746807593</v>
-      </c>
-      <c r="K5" t="n">
         <v>61.3190097859686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>60.414441640184</v>
+        <v>63.1922747338702</v>
       </c>
       <c r="C6" t="n">
-        <v>69.2167931622265</v>
+        <v>68.4318898419856</v>
       </c>
       <c r="D6" t="n">
-        <v>76.402362411018</v>
+        <v>68.7158186636906</v>
       </c>
       <c r="E6" t="n">
+        <v>67.8231464642976</v>
+      </c>
+      <c r="F6" t="n">
         <v>63.0666968689808</v>
-      </c>
-      <c r="F6" t="n">
-        <v>59.3338755591008</v>
       </c>
       <c r="G6" t="n">
         <v>86.8668628355021</v>
       </c>
       <c r="H6" t="n">
-        <v>76.4978780580193</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67.8231464642976</v>
-      </c>
-      <c r="J6" t="n">
-        <v>68.7158186636906</v>
-      </c>
-      <c r="K6" t="n">
         <v>55.7762638731718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>77.1098600012077</v>
+        <v>67.9004869341497</v>
       </c>
       <c r="C7" t="n">
-        <v>76.9084352386876</v>
+        <v>76.2597936315326</v>
       </c>
       <c r="D7" t="n">
-        <v>83.596654741558</v>
+        <v>67.0603338366483</v>
       </c>
       <c r="E7" t="n">
+        <v>63.3953440855901</v>
+      </c>
+      <c r="F7" t="n">
         <v>68.2575327407304</v>
-      </c>
-      <c r="F7" t="n">
-        <v>56.6504911211525</v>
       </c>
       <c r="G7" t="n">
         <v>87.6160911546928</v>
       </c>
       <c r="H7" t="n">
-        <v>76.7597594944841</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63.3953440855902</v>
-      </c>
-      <c r="J7" t="n">
-        <v>67.0603338366483</v>
-      </c>
-      <c r="K7" t="n">
         <v>57.0538630080154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>76.2733353729203</v>
+        <v>64.5460623471237</v>
       </c>
       <c r="C8" t="n">
-        <v>62.2879094164706</v>
+        <v>69.9322298285966</v>
       </c>
       <c r="D8" t="n">
-        <v>82.0338845276832</v>
+        <v>61.2454933195732</v>
       </c>
       <c r="E8" t="n">
+        <v>63.1254517516158</v>
+      </c>
+      <c r="F8" t="n">
         <v>67.0645142503371</v>
-      </c>
-      <c r="F8" t="n">
-        <v>61.8966284979516</v>
       </c>
       <c r="G8" t="n">
         <v>86.8214391306789</v>
       </c>
       <c r="H8" t="n">
-        <v>69.0022256508678</v>
-      </c>
-      <c r="I8" t="n">
-        <v>63.1254517516158</v>
-      </c>
-      <c r="J8" t="n">
-        <v>61.2454933195732</v>
-      </c>
-      <c r="K8" t="n">
         <v>57.3626811841157</v>
       </c>
     </row>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Union</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('European Union')</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
@@ -48,20 +48,20 @@
     <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
-*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
-*High color: High + Distributive effects displayed using colors on world map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
-*Mid: Global South + China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
-*Low: Global South + EU)</t>
+    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
+                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
+                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,7 +20,22 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('European Union')</t>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
@@ -418,187 +433,307 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>56.3639868952022</v>
+        <v>56.754323751711</v>
       </c>
       <c r="C2" t="n">
-        <v>60.5569946089801</v>
+        <v>59.7794694596153</v>
       </c>
       <c r="D2" t="n">
-        <v>54.6463376857384</v>
+        <v>64.0426345714967</v>
       </c>
       <c r="E2" t="n">
-        <v>64.5035458559718</v>
+        <v>53.7182465430094</v>
       </c>
       <c r="F2" t="n">
-        <v>57.5335226072956</v>
+        <v>76.5245267205996</v>
       </c>
       <c r="G2" t="n">
-        <v>84.3380432623891</v>
+        <v>47.7120255513006</v>
       </c>
       <c r="H2" t="n">
-        <v>47.6259730104953</v>
+        <v>63.8620067965069</v>
+      </c>
+      <c r="I2" t="n">
+        <v>55.3489741967407</v>
+      </c>
+      <c r="J2" t="n">
+        <v>64.499986052833</v>
+      </c>
+      <c r="K2" t="n">
+        <v>57.4451138422302</v>
+      </c>
+      <c r="L2" t="n">
+        <v>84.3704507366347</v>
+      </c>
+      <c r="M2" t="n">
+        <v>48.4884018122719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>34.3455077975836</v>
+        <v>34.4223697059018</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0355158596464</v>
+        <v>28.0933225043131</v>
       </c>
       <c r="D3" t="n">
-        <v>28.8591089308659</v>
+        <v>27.8740862116903</v>
       </c>
       <c r="E3" t="n">
-        <v>25.3832571311288</v>
+        <v>24.2450377399565</v>
       </c>
       <c r="F3" t="n">
-        <v>30.7964256295476</v>
+        <v>29.6381381192017</v>
       </c>
       <c r="G3" t="n">
-        <v>45.291373979237</v>
+        <v>32.5687362667485</v>
       </c>
       <c r="H3" t="n">
-        <v>42.4040946837611</v>
+        <v>29.3934984553033</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28.5897032651773</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25.3836196160946</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.7233792103148</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45.3612242553041</v>
+      </c>
+      <c r="M3" t="n">
+        <v>42.5831644321879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>42.5574333274623</v>
+        <v>42.6339247198305</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4505444046913</v>
+        <v>42.9078860780305</v>
       </c>
       <c r="D4" t="n">
-        <v>44.8409655646873</v>
+        <v>44.9684545300185</v>
       </c>
       <c r="E4" t="n">
-        <v>43.8248904709614</v>
+        <v>38.8158538785384</v>
       </c>
       <c r="F4" t="n">
-        <v>37.2281838448364</v>
+        <v>44.3210438096182</v>
       </c>
       <c r="G4" t="n">
-        <v>54.9042600841208</v>
+        <v>41.8652463575139</v>
       </c>
       <c r="H4" t="n">
-        <v>43.1563898238002</v>
+        <v>43.6667443148801</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44.8490591475934</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43.5894238759031</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37.2083991619577</v>
+      </c>
+      <c r="L4" t="n">
+        <v>54.9074576078928</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43.3314817860707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>68.4797846013269</v>
+        <v>68.6333714661057</v>
       </c>
       <c r="C5" t="n">
-        <v>75.7172971994228</v>
+        <v>73.2568518381731</v>
       </c>
       <c r="D5" t="n">
-        <v>60.367746807593</v>
+        <v>72.9387006469668</v>
       </c>
       <c r="E5" t="n">
-        <v>80.2921625022916</v>
+        <v>79.5227909512516</v>
       </c>
       <c r="F5" t="n">
-        <v>70.3649688948398</v>
+        <v>81.0066598327969</v>
       </c>
       <c r="G5" t="n">
-        <v>89.2630395702026</v>
+        <v>72.1329487470904</v>
       </c>
       <c r="H5" t="n">
-        <v>61.3190097859686</v>
+        <v>71.0664241541981</v>
+      </c>
+      <c r="I5" t="n">
+        <v>60.5700242231491</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79.8495233096214</v>
+      </c>
+      <c r="K5" t="n">
+        <v>70.2416523998435</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89.3008178148918</v>
+      </c>
+      <c r="M5" t="n">
+        <v>61.6396117731248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>63.1922747338702</v>
+        <v>63.2353139872231</v>
       </c>
       <c r="C6" t="n">
-        <v>68.4318898419856</v>
+        <v>68.4596063722009</v>
       </c>
       <c r="D6" t="n">
-        <v>68.7158186636906</v>
+        <v>59.859514390681</v>
       </c>
       <c r="E6" t="n">
-        <v>67.8231464642976</v>
+        <v>68.8729992801481</v>
       </c>
       <c r="F6" t="n">
-        <v>63.0666968689808</v>
+        <v>77.3913280373066</v>
       </c>
       <c r="G6" t="n">
-        <v>86.8668628355021</v>
+        <v>56.9208017183719</v>
       </c>
       <c r="H6" t="n">
-        <v>55.7762638731718</v>
+        <v>77.4071195652432</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70.0567275778412</v>
+      </c>
+      <c r="J6" t="n">
+        <v>65.7064163599474</v>
+      </c>
+      <c r="K6" t="n">
+        <v>62.9335666233676</v>
+      </c>
+      <c r="L6" t="n">
+        <v>86.8652307111913</v>
+      </c>
+      <c r="M6" t="n">
+        <v>55.8049679130303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>67.9004869341497</v>
+        <v>68.0177730018411</v>
       </c>
       <c r="C7" t="n">
-        <v>76.2597936315326</v>
+        <v>74.2506413791143</v>
       </c>
       <c r="D7" t="n">
-        <v>67.0603338366483</v>
+        <v>77.2298835227584</v>
       </c>
       <c r="E7" t="n">
-        <v>63.3953440855901</v>
+        <v>77.1710657536277</v>
       </c>
       <c r="F7" t="n">
-        <v>68.2575327407304</v>
+        <v>83.576078106873</v>
       </c>
       <c r="G7" t="n">
-        <v>87.6160911546928</v>
+        <v>57.2291891867279</v>
       </c>
       <c r="H7" t="n">
-        <v>57.0538630080154</v>
+        <v>75.9684431106597</v>
+      </c>
+      <c r="I7" t="n">
+        <v>66.5874077362106</v>
+      </c>
+      <c r="J7" t="n">
+        <v>63.6214070751137</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68.3815028404537</v>
+      </c>
+      <c r="L7" t="n">
+        <v>87.6279562861453</v>
+      </c>
+      <c r="M7" t="n">
+        <v>57.498465862827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>64.5460623471237</v>
+        <v>64.657523399647</v>
       </c>
       <c r="C8" t="n">
-        <v>69.9322298285966</v>
+        <v>68.6341592834307</v>
       </c>
       <c r="D8" t="n">
-        <v>61.2454933195732</v>
+        <v>76.3354482942999</v>
       </c>
       <c r="E8" t="n">
-        <v>63.1254517516158</v>
+        <v>62.5629214636311</v>
       </c>
       <c r="F8" t="n">
-        <v>67.0645142503371</v>
+        <v>82.8328142052132</v>
       </c>
       <c r="G8" t="n">
-        <v>86.8214391306789</v>
+        <v>63.1915592739711</v>
       </c>
       <c r="H8" t="n">
-        <v>57.3626811841157</v>
+        <v>68.7903398382735</v>
+      </c>
+      <c r="I8" t="n">
+        <v>61.5295008577396</v>
+      </c>
+      <c r="J8" t="n">
+        <v>63.3866033570636</v>
+      </c>
+      <c r="K8" t="n">
+        <v>67.0626415102122</v>
+      </c>
+      <c r="L8" t="n">
+        <v>86.8304556451837</v>
+      </c>
+      <c r="M8" t="n">
+        <v>57.082525561926</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ bold('Europe')</t>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -63,20 +63,20 @@
     <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
   <si>
-    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
-                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
-                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
-                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
-                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
+*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
+*High color: High + Distributive effects displayed using colors on world map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
+*Mid: Global South + China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
+*Low: Global South + EU)</t>
   </si>
 </sst>
 </file>
@@ -454,40 +454,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>56.754323751711</v>
+        <v>56.0650539932544</v>
       </c>
       <c r="C2" t="n">
-        <v>59.7794694596153</v>
+        <v>59.9767867316001</v>
       </c>
       <c r="D2" t="n">
-        <v>64.0426345714967</v>
+        <v>63.2700981847943</v>
       </c>
       <c r="E2" t="n">
-        <v>53.7182465430094</v>
+        <v>53.9437883785325</v>
       </c>
       <c r="F2" t="n">
-        <v>76.5245267205996</v>
+        <v>77.6556203940037</v>
       </c>
       <c r="G2" t="n">
-        <v>47.7120255513006</v>
+        <v>49.9398713953255</v>
       </c>
       <c r="H2" t="n">
-        <v>63.8620067965069</v>
+        <v>67.1115053493221</v>
       </c>
       <c r="I2" t="n">
-        <v>55.3489741967407</v>
+        <v>55.6336797510309</v>
       </c>
       <c r="J2" t="n">
-        <v>64.499986052833</v>
+        <v>64.5175728082397</v>
       </c>
       <c r="K2" t="n">
-        <v>57.4451138422302</v>
+        <v>57.3517481952712</v>
       </c>
       <c r="L2" t="n">
-        <v>84.3704507366347</v>
+        <v>84.4269389541221</v>
       </c>
       <c r="M2" t="n">
-        <v>48.4884018122719</v>
+        <v>47.8269033083932</v>
       </c>
     </row>
     <row r="3">
@@ -495,40 +495,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>34.4223697059018</v>
+        <v>35.1042798121032</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0933225043131</v>
+        <v>27.6518716447151</v>
       </c>
       <c r="D3" t="n">
-        <v>27.8740862116903</v>
+        <v>27.2294748169102</v>
       </c>
       <c r="E3" t="n">
-        <v>24.2450377399565</v>
+        <v>24.5994790740185</v>
       </c>
       <c r="F3" t="n">
-        <v>29.6381381192017</v>
+        <v>29.6762973985407</v>
       </c>
       <c r="G3" t="n">
-        <v>32.5687362667485</v>
+        <v>32.5372156021431</v>
       </c>
       <c r="H3" t="n">
-        <v>29.3934984553033</v>
+        <v>29.052834078804</v>
       </c>
       <c r="I3" t="n">
-        <v>28.5897032651773</v>
+        <v>27.3824938125986</v>
       </c>
       <c r="J3" t="n">
-        <v>25.3836196160946</v>
+        <v>25.6402293477376</v>
       </c>
       <c r="K3" t="n">
-        <v>30.7233792103148</v>
+        <v>30.647815935588</v>
       </c>
       <c r="L3" t="n">
-        <v>45.3612242553041</v>
+        <v>45.8491347721866</v>
       </c>
       <c r="M3" t="n">
-        <v>42.5831644321879</v>
+        <v>44.2670019029335</v>
       </c>
     </row>
     <row r="4">
@@ -536,40 +536,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>42.6339247198305</v>
+        <v>42.1246803058577</v>
       </c>
       <c r="C4" t="n">
-        <v>42.9078860780305</v>
+        <v>42.2253854565563</v>
       </c>
       <c r="D4" t="n">
-        <v>44.9684545300185</v>
+        <v>44.470418822047</v>
       </c>
       <c r="E4" t="n">
-        <v>38.8158538785384</v>
+        <v>38.8721664498457</v>
       </c>
       <c r="F4" t="n">
-        <v>44.3210438096182</v>
+        <v>43.2099455377032</v>
       </c>
       <c r="G4" t="n">
-        <v>41.8652463575139</v>
+        <v>41.3978517628264</v>
       </c>
       <c r="H4" t="n">
-        <v>43.6667443148801</v>
+        <v>42.5332510847262</v>
       </c>
       <c r="I4" t="n">
-        <v>44.8490591475934</v>
+        <v>42.3868565281114</v>
       </c>
       <c r="J4" t="n">
-        <v>43.5894238759031</v>
+        <v>45.7080771208213</v>
       </c>
       <c r="K4" t="n">
-        <v>37.2083991619577</v>
+        <v>37.201299617047</v>
       </c>
       <c r="L4" t="n">
-        <v>54.9074576078928</v>
+        <v>54.540958857809</v>
       </c>
       <c r="M4" t="n">
-        <v>43.3314817860707</v>
+        <v>42.7454939880076</v>
       </c>
     </row>
     <row r="5">
@@ -577,40 +577,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>68.6333714661057</v>
+        <v>68.7680772081816</v>
       </c>
       <c r="C5" t="n">
-        <v>73.2568518381731</v>
+        <v>73.1218926963556</v>
       </c>
       <c r="D5" t="n">
-        <v>72.9387006469668</v>
+        <v>74.8167047886158</v>
       </c>
       <c r="E5" t="n">
-        <v>79.5227909512516</v>
+        <v>77.6651627043769</v>
       </c>
       <c r="F5" t="n">
-        <v>81.0066598327969</v>
+        <v>78.8397130847818</v>
       </c>
       <c r="G5" t="n">
-        <v>72.1329487470904</v>
+        <v>72.2699048322857</v>
       </c>
       <c r="H5" t="n">
-        <v>71.0664241541981</v>
+        <v>74.5477531500109</v>
       </c>
       <c r="I5" t="n">
-        <v>60.5700242231491</v>
+        <v>60.0402570984565</v>
       </c>
       <c r="J5" t="n">
-        <v>79.8495233096214</v>
+        <v>73.6100890945228</v>
       </c>
       <c r="K5" t="n">
-        <v>70.2416523998435</v>
+        <v>70.1481006948373</v>
       </c>
       <c r="L5" t="n">
-        <v>89.3008178148918</v>
+        <v>90.0654906679775</v>
       </c>
       <c r="M5" t="n">
-        <v>61.6396117731248</v>
+        <v>60.7478220876848</v>
       </c>
     </row>
     <row r="6">
@@ -618,40 +618,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>63.2353139872231</v>
+        <v>62.1896236156339</v>
       </c>
       <c r="C6" t="n">
-        <v>68.4596063722009</v>
+        <v>67.1115592003635</v>
       </c>
       <c r="D6" t="n">
-        <v>59.859514390681</v>
+        <v>60.4730488644622</v>
       </c>
       <c r="E6" t="n">
-        <v>68.8729992801481</v>
+        <v>68.0636151109856</v>
       </c>
       <c r="F6" t="n">
-        <v>77.3913280373066</v>
+        <v>79.4761890940301</v>
       </c>
       <c r="G6" t="n">
-        <v>56.9208017183719</v>
+        <v>56.7344935799568</v>
       </c>
       <c r="H6" t="n">
-        <v>77.4071195652432</v>
+        <v>75.0361553936562</v>
       </c>
       <c r="I6" t="n">
-        <v>70.0567275778412</v>
+        <v>62.8577545120797</v>
       </c>
       <c r="J6" t="n">
-        <v>65.7064163599474</v>
+        <v>64.0106767264055</v>
       </c>
       <c r="K6" t="n">
-        <v>62.9335666233676</v>
+        <v>62.3553312644136</v>
       </c>
       <c r="L6" t="n">
-        <v>86.8652307111913</v>
+        <v>87.2000915084034</v>
       </c>
       <c r="M6" t="n">
-        <v>55.8049679130303</v>
+        <v>56.1980732174042</v>
       </c>
     </row>
     <row r="7">
@@ -659,40 +659,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>68.0177730018411</v>
+        <v>68.295755153958</v>
       </c>
       <c r="C7" t="n">
-        <v>74.2506413791143</v>
+        <v>74.00108635788</v>
       </c>
       <c r="D7" t="n">
-        <v>77.2298835227584</v>
+        <v>75.9824976861691</v>
       </c>
       <c r="E7" t="n">
-        <v>77.1710657536277</v>
+        <v>76.5212509698029</v>
       </c>
       <c r="F7" t="n">
-        <v>83.576078106873</v>
+        <v>82.0911143552899</v>
       </c>
       <c r="G7" t="n">
-        <v>57.2291891867279</v>
+        <v>57.844321296245</v>
       </c>
       <c r="H7" t="n">
-        <v>75.9684431106597</v>
+        <v>77.1387230629468</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5874077362106</v>
+        <v>63.9288486521255</v>
       </c>
       <c r="J7" t="n">
-        <v>63.6214070751137</v>
+        <v>65.3226794291234</v>
       </c>
       <c r="K7" t="n">
-        <v>68.3815028404537</v>
+        <v>68.0870870197065</v>
       </c>
       <c r="L7" t="n">
-        <v>87.6279562861453</v>
+        <v>86.5707126249889</v>
       </c>
       <c r="M7" t="n">
-        <v>57.498465862827</v>
+        <v>58.8203739198101</v>
       </c>
     </row>
     <row r="8">
@@ -700,40 +700,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>64.657523399647</v>
+        <v>64.9140364624805</v>
       </c>
       <c r="C8" t="n">
-        <v>68.6341592834307</v>
+        <v>67.6681288442518</v>
       </c>
       <c r="D8" t="n">
-        <v>76.3354482942999</v>
+        <v>74.0987064843566</v>
       </c>
       <c r="E8" t="n">
-        <v>62.5629214636311</v>
+        <v>60.4196721477108</v>
       </c>
       <c r="F8" t="n">
-        <v>82.8328142052132</v>
+        <v>84.8527289283848</v>
       </c>
       <c r="G8" t="n">
-        <v>63.1915592739711</v>
+        <v>61.8758199978058</v>
       </c>
       <c r="H8" t="n">
-        <v>68.7903398382735</v>
+        <v>69.2345950551897</v>
       </c>
       <c r="I8" t="n">
-        <v>61.5295008577396</v>
+        <v>63.0583838143701</v>
       </c>
       <c r="J8" t="n">
-        <v>63.3866033570636</v>
+        <v>61.9437084459907</v>
       </c>
       <c r="K8" t="n">
-        <v>67.0626415102122</v>
+        <v>67.2484523865818</v>
       </c>
       <c r="L8" t="n">
-        <v>86.8304556451837</v>
+        <v>86.9585511765621</v>
       </c>
       <c r="M8" t="n">
-        <v>57.082525561926</v>
+        <v>58.7690833811101</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
     <t xml:space="preserve">Belief about GCS support in the U.S.
@@ -454,40 +454,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>56.0650539932544</v>
+        <v>56.8618171438432</v>
       </c>
       <c r="C2" t="n">
-        <v>59.9767867316001</v>
+        <v>62.4001849679936</v>
       </c>
       <c r="D2" t="n">
-        <v>63.2700981847943</v>
+        <v>61.0995779367554</v>
       </c>
       <c r="E2" t="n">
-        <v>53.9437883785325</v>
+        <v>58.2360283219923</v>
       </c>
       <c r="F2" t="n">
-        <v>77.6556203940037</v>
+        <v>75.7217964426447</v>
       </c>
       <c r="G2" t="n">
-        <v>49.9398713953255</v>
+        <v>53.2876856008449</v>
       </c>
       <c r="H2" t="n">
-        <v>67.1115053493221</v>
+        <v>68.307838195468</v>
       </c>
       <c r="I2" t="n">
-        <v>55.6336797510309</v>
+        <v>57.5266630334687</v>
       </c>
       <c r="J2" t="n">
-        <v>64.5175728082397</v>
+        <v>63.8943857257609</v>
       </c>
       <c r="K2" t="n">
-        <v>57.3517481952712</v>
+        <v>55.1678716644127</v>
       </c>
       <c r="L2" t="n">
-        <v>84.4269389541221</v>
+        <v>84.3413514265041</v>
       </c>
       <c r="M2" t="n">
-        <v>47.8269033083932</v>
+        <v>47.7634812997704</v>
       </c>
     </row>
     <row r="3">
@@ -495,16 +495,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>35.1042798121032</v>
+        <v>34.5391411723734</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6518716447151</v>
+        <v>27.6725837594356</v>
       </c>
       <c r="D3" t="n">
         <v>27.2294748169102</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5994790740185</v>
+        <v>24.5718938989159</v>
       </c>
       <c r="F3" t="n">
         <v>29.6762973985407</v>
@@ -513,13 +513,13 @@
         <v>32.5372156021431</v>
       </c>
       <c r="H3" t="n">
-        <v>29.052834078804</v>
+        <v>29.0525401507393</v>
       </c>
       <c r="I3" t="n">
-        <v>27.3824938125986</v>
+        <v>27.5853807942848</v>
       </c>
       <c r="J3" t="n">
-        <v>25.6402293477376</v>
+        <v>25.6949653187643</v>
       </c>
       <c r="K3" t="n">
         <v>30.647815935588</v>
@@ -528,7 +528,7 @@
         <v>45.8491347721866</v>
       </c>
       <c r="M3" t="n">
-        <v>44.2670019029335</v>
+        <v>43.9999727704209</v>
       </c>
     </row>
     <row r="4">
@@ -536,16 +536,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>42.1246803058577</v>
+        <v>42.3073250202166</v>
       </c>
       <c r="C4" t="n">
-        <v>42.2253854565563</v>
+        <v>42.32731074868</v>
       </c>
       <c r="D4" t="n">
         <v>44.470418822047</v>
       </c>
       <c r="E4" t="n">
-        <v>38.8721664498457</v>
+        <v>38.8280061323227</v>
       </c>
       <c r="F4" t="n">
         <v>43.2099455377032</v>
@@ -554,13 +554,13 @@
         <v>41.3978517628264</v>
       </c>
       <c r="H4" t="n">
-        <v>42.5332510847262</v>
+        <v>42.7931379132603</v>
       </c>
       <c r="I4" t="n">
-        <v>42.3868565281114</v>
+        <v>42.6722800498643</v>
       </c>
       <c r="J4" t="n">
-        <v>45.7080771208213</v>
+        <v>46.7580875889793</v>
       </c>
       <c r="K4" t="n">
         <v>37.201299617047</v>
@@ -569,7 +569,7 @@
         <v>54.540958857809</v>
       </c>
       <c r="M4" t="n">
-        <v>42.7454939880076</v>
+        <v>43.2695212497248</v>
       </c>
     </row>
     <row r="5">
@@ -577,16 +577,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>68.7680772081816</v>
+        <v>69.5812185071451</v>
       </c>
       <c r="C5" t="n">
-        <v>73.1218926963556</v>
+        <v>73.3479573741348</v>
       </c>
       <c r="D5" t="n">
         <v>74.8167047886158</v>
       </c>
       <c r="E5" t="n">
-        <v>77.6651627043769</v>
+        <v>77.7719547869089</v>
       </c>
       <c r="F5" t="n">
         <v>78.8397130847818</v>
@@ -595,13 +595,13 @@
         <v>72.2699048322857</v>
       </c>
       <c r="H5" t="n">
-        <v>74.5477531500109</v>
+        <v>75.1109170132264</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0402570984565</v>
+        <v>60.9819252266392</v>
       </c>
       <c r="J5" t="n">
-        <v>73.6100890945228</v>
+        <v>74.0325267195033</v>
       </c>
       <c r="K5" t="n">
         <v>70.1481006948373</v>
@@ -610,7 +610,7 @@
         <v>90.0654906679775</v>
       </c>
       <c r="M5" t="n">
-        <v>60.7478220876848</v>
+        <v>62.2685731703788</v>
       </c>
     </row>
     <row r="6">
@@ -618,10 +618,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>62.1896236156339</v>
+        <v>62.8799325385037</v>
       </c>
       <c r="C6" t="n">
-        <v>67.1115592003635</v>
+        <v>67.1390926619857</v>
       </c>
       <c r="D6" t="n">
         <v>60.4730488644622</v>
@@ -636,13 +636,13 @@
         <v>56.7344935799568</v>
       </c>
       <c r="H6" t="n">
-        <v>75.0361553936562</v>
+        <v>75.1473299116737</v>
       </c>
       <c r="I6" t="n">
-        <v>62.8577545120797</v>
+        <v>63.0609719571066</v>
       </c>
       <c r="J6" t="n">
-        <v>64.0106767264055</v>
+        <v>63.9468610733133</v>
       </c>
       <c r="K6" t="n">
         <v>62.3553312644136</v>
@@ -651,7 +651,7 @@
         <v>87.2000915084034</v>
       </c>
       <c r="M6" t="n">
-        <v>56.1980732174042</v>
+        <v>56.4686542786231</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +659,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>68.295755153958</v>
+        <v>69.5668700867368</v>
       </c>
       <c r="C7" t="n">
-        <v>74.00108635788</v>
+        <v>74.2176735566392</v>
       </c>
       <c r="D7" t="n">
         <v>75.9824976861691</v>
@@ -677,13 +677,13 @@
         <v>57.844321296245</v>
       </c>
       <c r="H7" t="n">
-        <v>77.1387230629468</v>
+        <v>77.6869379998253</v>
       </c>
       <c r="I7" t="n">
-        <v>63.9288486521255</v>
+        <v>64.3465509087195</v>
       </c>
       <c r="J7" t="n">
-        <v>65.3226794291234</v>
+        <v>66.169163789345</v>
       </c>
       <c r="K7" t="n">
         <v>68.0870870197065</v>
@@ -692,7 +692,7 @@
         <v>86.5707126249889</v>
       </c>
       <c r="M7" t="n">
-        <v>58.8203739198101</v>
+        <v>60.6948684958255</v>
       </c>
     </row>
     <row r="8">
@@ -700,16 +700,16 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>64.9140364624805</v>
+        <v>65.1547620295844</v>
       </c>
       <c r="C8" t="n">
-        <v>67.6681288442518</v>
+        <v>67.7122009451666</v>
       </c>
       <c r="D8" t="n">
         <v>74.0987064843566</v>
       </c>
       <c r="E8" t="n">
-        <v>60.4196721477108</v>
+        <v>60.1883562264698</v>
       </c>
       <c r="F8" t="n">
         <v>84.8527289283848</v>
@@ -718,13 +718,13 @@
         <v>61.8758199978058</v>
       </c>
       <c r="H8" t="n">
-        <v>69.2345950551897</v>
+        <v>69.984614298203</v>
       </c>
       <c r="I8" t="n">
-        <v>63.0583838143701</v>
+        <v>63.3536132545703</v>
       </c>
       <c r="J8" t="n">
-        <v>61.9437084459907</v>
+        <v>61.9407865417288</v>
       </c>
       <c r="K8" t="n">
         <v>67.2484523865818</v>
@@ -733,7 +733,7 @@
         <v>86.9585511765621</v>
       </c>
       <c r="M8" t="n">
-        <v>58.7690833811101</v>
+        <v>59.1982855438514</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -56,27 +56,28 @@
     <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about GCS support in the U.S.
+    <t xml:space="preserve">Belief about GCS support in own country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Belief about GCS support in the U.S.
 (except for the U.S.: support in the EU)</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about GCS support in own country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
-*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
-*High color: High + Distributive effects displayed using colors on world map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
-*Mid: Global South + China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
-*Low: Global South + EU)</t>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
+                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
+                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
   </si>
 </sst>
 </file>
@@ -454,40 +455,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>56.8618171438432</v>
+        <v>56.4056918460414</v>
       </c>
       <c r="C2" t="n">
-        <v>62.4001849679936</v>
+        <v>62.6104574696674</v>
       </c>
       <c r="D2" t="n">
-        <v>61.0995779367554</v>
+        <v>62.2273519140294</v>
       </c>
       <c r="E2" t="n">
-        <v>58.2360283219923</v>
+        <v>56.7933697165467</v>
       </c>
       <c r="F2" t="n">
-        <v>75.7217964426447</v>
+        <v>75.7304011850663</v>
       </c>
       <c r="G2" t="n">
-        <v>53.2876856008449</v>
+        <v>53.058303552895</v>
       </c>
       <c r="H2" t="n">
-        <v>68.307838195468</v>
+        <v>68.9059343539561</v>
       </c>
       <c r="I2" t="n">
-        <v>57.5266630334687</v>
+        <v>59.3195783835747</v>
       </c>
       <c r="J2" t="n">
-        <v>63.8943857257609</v>
+        <v>62.3575700142156</v>
       </c>
       <c r="K2" t="n">
-        <v>55.1678716644127</v>
+        <v>54.8050017237745</v>
       </c>
       <c r="L2" t="n">
-        <v>84.3413514265041</v>
+        <v>84.6428606188793</v>
       </c>
       <c r="M2" t="n">
-        <v>47.7634812997704</v>
+        <v>47.4614389262856</v>
       </c>
     </row>
     <row r="3">
@@ -495,40 +496,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>34.5391411723734</v>
+        <v>41.7372453377052</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6725837594356</v>
+        <v>42.2297683433051</v>
       </c>
       <c r="D3" t="n">
-        <v>27.2294748169102</v>
+        <v>44.4877182903437</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5718938989159</v>
+        <v>38.552586222486</v>
       </c>
       <c r="F3" t="n">
-        <v>29.6762973985407</v>
+        <v>43.3335742727043</v>
       </c>
       <c r="G3" t="n">
-        <v>32.5372156021431</v>
+        <v>39.2814968440086</v>
       </c>
       <c r="H3" t="n">
-        <v>29.0525401507393</v>
+        <v>43.8010508208596</v>
       </c>
       <c r="I3" t="n">
-        <v>27.5853807942848</v>
+        <v>43.8290682999177</v>
       </c>
       <c r="J3" t="n">
-        <v>25.6949653187643</v>
+        <v>45.7593973431738</v>
       </c>
       <c r="K3" t="n">
-        <v>30.647815935588</v>
+        <v>36.9068079681403</v>
       </c>
       <c r="L3" t="n">
-        <v>45.8491347721866</v>
+        <v>54.6783899296328</v>
       </c>
       <c r="M3" t="n">
-        <v>43.9999727704209</v>
+        <v>41.687361942331</v>
       </c>
     </row>
     <row r="4">
@@ -536,40 +537,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>42.3073250202166</v>
+        <v>34.7728459875887</v>
       </c>
       <c r="C4" t="n">
-        <v>42.32731074868</v>
+        <v>28.1800572752332</v>
       </c>
       <c r="D4" t="n">
-        <v>44.470418822047</v>
+        <v>27.3641066555449</v>
       </c>
       <c r="E4" t="n">
-        <v>38.8280061323227</v>
+        <v>25.6678080584812</v>
       </c>
       <c r="F4" t="n">
-        <v>43.2099455377032</v>
+        <v>29.6625949546182</v>
       </c>
       <c r="G4" t="n">
-        <v>41.3978517628264</v>
+        <v>31.851890054073</v>
       </c>
       <c r="H4" t="n">
-        <v>42.7931379132603</v>
+        <v>29.1910171733495</v>
       </c>
       <c r="I4" t="n">
-        <v>42.6722800498643</v>
+        <v>28.6093000748544</v>
       </c>
       <c r="J4" t="n">
-        <v>46.7580875889793</v>
+        <v>25.624783349908</v>
       </c>
       <c r="K4" t="n">
-        <v>37.201299617047</v>
+        <v>30.4387261840999</v>
       </c>
       <c r="L4" t="n">
-        <v>54.540958857809</v>
+        <v>45.8572414678735</v>
       </c>
       <c r="M4" t="n">
-        <v>43.2695212497248</v>
+        <v>42.9925088066507</v>
       </c>
     </row>
     <row r="5">
@@ -577,40 +578,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>69.5812185071451</v>
+        <v>65.7757973018818</v>
       </c>
       <c r="C5" t="n">
-        <v>73.3479573741348</v>
+        <v>68.8160595583607</v>
       </c>
       <c r="D5" t="n">
-        <v>74.8167047886158</v>
+        <v>75.3397348285344</v>
       </c>
       <c r="E5" t="n">
-        <v>77.7719547869089</v>
+        <v>62.7385682537816</v>
       </c>
       <c r="F5" t="n">
-        <v>78.8397130847818</v>
+        <v>84.8771216338856</v>
       </c>
       <c r="G5" t="n">
-        <v>72.2699048322857</v>
+        <v>60.3075714398011</v>
       </c>
       <c r="H5" t="n">
-        <v>75.1109170132264</v>
+        <v>70.7904376466329</v>
       </c>
       <c r="I5" t="n">
-        <v>60.9819252266392</v>
+        <v>63.7497870612938</v>
       </c>
       <c r="J5" t="n">
-        <v>74.0325267195033</v>
+        <v>61.691572049826</v>
       </c>
       <c r="K5" t="n">
-        <v>70.1481006948373</v>
+        <v>66.5884503407556</v>
       </c>
       <c r="L5" t="n">
-        <v>90.0654906679775</v>
+        <v>86.9712358856764</v>
       </c>
       <c r="M5" t="n">
-        <v>62.2685731703788</v>
+        <v>60.3307739305438</v>
       </c>
     </row>
     <row r="6">
@@ -618,40 +619,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>62.8799325385037</v>
+        <v>67.6120341228827</v>
       </c>
       <c r="C6" t="n">
-        <v>67.1390926619857</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="D6" t="n">
-        <v>60.4730488644622</v>
+        <v>75.9578759812179</v>
       </c>
       <c r="E6" t="n">
-        <v>68.0636151109856</v>
+        <v>71.5781509811605</v>
       </c>
       <c r="F6" t="n">
-        <v>79.4761890940301</v>
+        <v>82.6621609973818</v>
       </c>
       <c r="G6" t="n">
-        <v>56.7344935799568</v>
+        <v>53.9542753382839</v>
       </c>
       <c r="H6" t="n">
-        <v>75.1473299116737</v>
+        <v>77.7187061273175</v>
       </c>
       <c r="I6" t="n">
-        <v>63.0609719571066</v>
+        <v>67.466334415845</v>
       </c>
       <c r="J6" t="n">
-        <v>63.9468610733133</v>
+        <v>63.7890555129928</v>
       </c>
       <c r="K6" t="n">
-        <v>62.3553312644136</v>
+        <v>67.2922348590199</v>
       </c>
       <c r="L6" t="n">
-        <v>87.2000915084034</v>
+        <v>86.513074970901</v>
       </c>
       <c r="M6" t="n">
-        <v>56.4686542786231</v>
+        <v>58.9366541153335</v>
       </c>
     </row>
     <row r="7">
@@ -659,40 +660,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>69.5668700867368</v>
+        <v>69.9010110708032</v>
       </c>
       <c r="C7" t="n">
-        <v>74.2176735566392</v>
+        <v>73.33558792255</v>
       </c>
       <c r="D7" t="n">
-        <v>75.9824976861691</v>
+        <v>76.3148103910017</v>
       </c>
       <c r="E7" t="n">
-        <v>76.5212509698029</v>
+        <v>77.0272348727413</v>
       </c>
       <c r="F7" t="n">
-        <v>82.0911143552899</v>
+        <v>78.8435848365109</v>
       </c>
       <c r="G7" t="n">
-        <v>57.844321296245</v>
+        <v>71.308717218709</v>
       </c>
       <c r="H7" t="n">
-        <v>77.6869379998253</v>
+        <v>74.199477200258</v>
       </c>
       <c r="I7" t="n">
-        <v>64.3465509087195</v>
+        <v>62.534539350272</v>
       </c>
       <c r="J7" t="n">
-        <v>66.169163789345</v>
+        <v>74.3491876231661</v>
       </c>
       <c r="K7" t="n">
-        <v>68.0870870197065</v>
+        <v>70.796250180037</v>
       </c>
       <c r="L7" t="n">
-        <v>86.5707126249889</v>
+        <v>90.518282762834</v>
       </c>
       <c r="M7" t="n">
-        <v>60.6948684958255</v>
+        <v>63.6481822477839</v>
       </c>
     </row>
     <row r="8">
@@ -700,40 +701,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>65.1547620295844</v>
+        <v>63.2380148473265</v>
       </c>
       <c r="C8" t="n">
-        <v>67.7122009451666</v>
+        <v>67.9633244466616</v>
       </c>
       <c r="D8" t="n">
-        <v>74.0987064843566</v>
+        <v>61.4641799995525</v>
       </c>
       <c r="E8" t="n">
-        <v>60.1883562264698</v>
+        <v>68.0628787989001</v>
       </c>
       <c r="F8" t="n">
-        <v>84.8527289283848</v>
+        <v>79.3318305400507</v>
       </c>
       <c r="G8" t="n">
-        <v>61.8758199978058</v>
+        <v>56.6663585514635</v>
       </c>
       <c r="H8" t="n">
-        <v>69.984614298203</v>
+        <v>77.4540600482755</v>
       </c>
       <c r="I8" t="n">
-        <v>63.3536132545703</v>
+        <v>66.1815968025775</v>
       </c>
       <c r="J8" t="n">
-        <v>61.9407865417288</v>
+        <v>64.7145596361043</v>
       </c>
       <c r="K8" t="n">
-        <v>67.2484523865818</v>
+        <v>63.3776677259688</v>
       </c>
       <c r="L8" t="n">
-        <v>86.9585511765621</v>
+        <v>87.5032786022504</v>
       </c>
       <c r="M8" t="n">
-        <v>59.1982855438514</v>
+        <v>56.0366948341141</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -449,13 +452,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>56.4056918460414</v>
+        <v>55.4258283605262</v>
       </c>
       <c r="C2" t="n">
         <v>62.6104574696674</v>
@@ -485,18 +491,21 @@
         <v>54.8050017237745</v>
       </c>
       <c r="L2" t="n">
+        <v>49.41326408185</v>
+      </c>
+      <c r="M2" t="n">
         <v>84.6428606188793</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>47.4614389262856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>41.7372453377052</v>
+        <v>40.6177237377237</v>
       </c>
       <c r="C3" t="n">
         <v>42.2297683433051</v>
@@ -526,15 +535,18 @@
         <v>36.9068079681403</v>
       </c>
       <c r="L3" t="n">
+        <v>37.200929502023</v>
+      </c>
+      <c r="M3" t="n">
         <v>54.6783899296328</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>41.687361942331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>34.7728459875887</v>
@@ -566,19 +578,20 @@
       <c r="K4" t="n">
         <v>30.4387261840999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4"/>
+      <c r="M4" t="n">
         <v>45.8572414678735</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>42.9925088066507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>65.7757973018818</v>
+        <v>64.6020160692236</v>
       </c>
       <c r="C5" t="n">
         <v>68.8160595583607</v>
@@ -608,18 +621,21 @@
         <v>66.5884503407556</v>
       </c>
       <c r="L5" t="n">
+        <v>56.6004208236377</v>
+      </c>
+      <c r="M5" t="n">
         <v>86.9712358856764</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>60.3307739305438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>67.6120341228827</v>
+        <v>67.3589957678886</v>
       </c>
       <c r="C6" t="n">
         <v>73.1501666372061</v>
@@ -649,18 +665,21 @@
         <v>67.2922348590199</v>
       </c>
       <c r="L6" t="n">
+        <v>64.9824905118065</v>
+      </c>
+      <c r="M6" t="n">
         <v>86.513074970901</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>58.9366541153335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>69.9010110708032</v>
+        <v>68.5061536753791</v>
       </c>
       <c r="C7" t="n">
         <v>73.33558792255</v>
@@ -690,18 +709,21 @@
         <v>70.796250180037</v>
       </c>
       <c r="L7" t="n">
+        <v>60.7672609910995</v>
+      </c>
+      <c r="M7" t="n">
         <v>90.518282762834</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>63.6481822477839</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>63.2380148473265</v>
+        <v>61.9858273857402</v>
       </c>
       <c r="C8" t="n">
         <v>67.9633244466616</v>
@@ -731,9 +753,12 @@
         <v>63.3776677259688</v>
       </c>
       <c r="L8" t="n">
+        <v>55.4489061890469</v>
+      </c>
+      <c r="M8" t="n">
         <v>87.5032786022504</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>56.0366948341141</v>
       </c>
     </row>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>55.4258283605262</v>
+        <v>55.3718303775116</v>
       </c>
       <c r="C2" t="n">
         <v>62.6104574696674</v>
@@ -470,7 +470,7 @@
         <v>62.2273519140294</v>
       </c>
       <c r="E2" t="n">
-        <v>56.7933697165467</v>
+        <v>56.7933697165468</v>
       </c>
       <c r="F2" t="n">
         <v>75.7304011850663</v>
@@ -488,16 +488,16 @@
         <v>62.3575700142156</v>
       </c>
       <c r="K2" t="n">
-        <v>54.8050017237745</v>
+        <v>54.8090076208069</v>
       </c>
       <c r="L2" t="n">
-        <v>49.41326408185</v>
+        <v>49.0282605200155</v>
       </c>
       <c r="M2" t="n">
         <v>84.6428606188793</v>
       </c>
       <c r="N2" t="n">
-        <v>47.4614389262856</v>
+        <v>47.4912333237318</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>40.6177237377237</v>
+        <v>40.5493307668479</v>
       </c>
       <c r="C3" t="n">
         <v>42.2297683433051</v>
@@ -532,16 +532,16 @@
         <v>45.7593973431738</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9068079681403</v>
+        <v>36.9055302021312</v>
       </c>
       <c r="L3" t="n">
-        <v>37.200929502023</v>
+        <v>36.9057907051389</v>
       </c>
       <c r="M3" t="n">
         <v>54.6783899296328</v>
       </c>
       <c r="N3" t="n">
-        <v>41.687361942331</v>
+        <v>41.6894250824717</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +549,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>34.7728459875887</v>
+        <v>34.7872415482579</v>
       </c>
       <c r="C4" t="n">
         <v>28.1800572752332</v>
@@ -576,14 +576,14 @@
         <v>25.624783349908</v>
       </c>
       <c r="K4" t="n">
-        <v>30.4387261840999</v>
+        <v>30.4357942185907</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
         <v>45.8572414678735</v>
       </c>
       <c r="N4" t="n">
-        <v>42.9925088066507</v>
+        <v>43.0029533260978</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>64.6020160692236</v>
+        <v>64.7240480131028</v>
       </c>
       <c r="C5" t="n">
         <v>68.8160595583607</v>
@@ -618,16 +618,16 @@
         <v>61.691572049826</v>
       </c>
       <c r="K5" t="n">
-        <v>66.5884503407556</v>
+        <v>66.5933688883394</v>
       </c>
       <c r="L5" t="n">
-        <v>56.6004208236377</v>
+        <v>57.2690723237937</v>
       </c>
       <c r="M5" t="n">
         <v>86.9712358856764</v>
       </c>
       <c r="N5" t="n">
-        <v>60.3307739305438</v>
+        <v>60.3471262597791</v>
       </c>
     </row>
     <row r="6">
@@ -635,10 +635,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>67.3589957678886</v>
+        <v>67.2054760884641</v>
       </c>
       <c r="C6" t="n">
-        <v>73.1501666372061</v>
+        <v>73.150166637206</v>
       </c>
       <c r="D6" t="n">
         <v>75.9578759812179</v>
@@ -662,16 +662,16 @@
         <v>63.7890555129928</v>
       </c>
       <c r="K6" t="n">
-        <v>67.2922348590199</v>
+        <v>67.292535125419</v>
       </c>
       <c r="L6" t="n">
-        <v>64.9824905118065</v>
+        <v>63.9033952437169</v>
       </c>
       <c r="M6" t="n">
         <v>86.513074970901</v>
       </c>
       <c r="N6" t="n">
-        <v>58.9366541153335</v>
+        <v>58.9468339412676</v>
       </c>
     </row>
     <row r="7">
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>68.5061536753791</v>
+        <v>68.518253119246</v>
       </c>
       <c r="C7" t="n">
         <v>73.33558792255</v>
@@ -706,16 +706,16 @@
         <v>74.3491876231661</v>
       </c>
       <c r="K7" t="n">
-        <v>70.796250180037</v>
+        <v>70.8149579691965</v>
       </c>
       <c r="L7" t="n">
-        <v>60.7672609910995</v>
+        <v>60.4866837966034</v>
       </c>
       <c r="M7" t="n">
         <v>90.518282762834</v>
       </c>
       <c r="N7" t="n">
-        <v>63.6481822477839</v>
+        <v>63.6828257869627</v>
       </c>
     </row>
     <row r="8">
@@ -723,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>61.9858273857402</v>
+        <v>61.895417279981</v>
       </c>
       <c r="C8" t="n">
         <v>67.9633244466616</v>
@@ -750,16 +750,16 @@
         <v>64.7145596361043</v>
       </c>
       <c r="K8" t="n">
-        <v>63.3776677259688</v>
+        <v>63.3861854984241</v>
       </c>
       <c r="L8" t="n">
-        <v>55.4489061890469</v>
+        <v>54.11746546684</v>
       </c>
       <c r="M8" t="n">
         <v>87.5032786022504</v>
       </c>
       <c r="N8" t="n">
-        <v>56.0366948341141</v>
+        <v>56.0767240057917</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_ics_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_ics_all_mean.xlsx
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>55.3718303775116</v>
+        <v>55.3746767090015</v>
       </c>
       <c r="C2" t="n">
         <v>62.6104574696674</v>
@@ -470,7 +470,7 @@
         <v>62.2273519140294</v>
       </c>
       <c r="E2" t="n">
-        <v>56.7933697165468</v>
+        <v>56.7933697165467</v>
       </c>
       <c r="F2" t="n">
         <v>75.7304011850663</v>
@@ -491,7 +491,7 @@
         <v>54.8090076208069</v>
       </c>
       <c r="L2" t="n">
-        <v>49.0282605200155</v>
+        <v>49.0485989036895</v>
       </c>
       <c r="M2" t="n">
         <v>84.6428606188793</v>
@@ -505,7 +505,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>40.5493307668479</v>
+        <v>40.563158268296</v>
       </c>
       <c r="C3" t="n">
         <v>42.2297683433051</v>
@@ -535,7 +535,7 @@
         <v>36.9055302021312</v>
       </c>
       <c r="L3" t="n">
-        <v>36.9057907051389</v>
+        <v>36.9618773883661</v>
       </c>
       <c r="M3" t="n">
         <v>54.6783899296328</v>
@@ -591,7 +591,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>64.7240480131028</v>
+        <v>64.7210522905015</v>
       </c>
       <c r="C5" t="n">
         <v>68.8160595583607</v>
@@ -635,10 +635,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>67.2054760884641</v>
+        <v>67.1354010141054</v>
       </c>
       <c r="C6" t="n">
-        <v>73.150166637206</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="D6" t="n">
         <v>75.9578759812179</v>
@@ -665,7 +665,7 @@
         <v>67.292535125419</v>
       </c>
       <c r="L6" t="n">
-        <v>63.9033952437169</v>
+        <v>63.442019211072</v>
       </c>
       <c r="M6" t="n">
         <v>86.513074970901</v>
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>68.518253119246</v>
+        <v>68.4899159160604</v>
       </c>
       <c r="C7" t="n">
         <v>73.33558792255</v>
@@ -709,7 +709,7 @@
         <v>70.8149579691965</v>
       </c>
       <c r="L7" t="n">
-        <v>60.4866837966034</v>
+        <v>60.1821932205212</v>
       </c>
       <c r="M7" t="n">
         <v>90.518282762834</v>
@@ -723,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>61.895417279981</v>
+        <v>61.8798692282585</v>
       </c>
       <c r="C8" t="n">
         <v>67.9633244466616</v>
@@ -753,7 +753,7 @@
         <v>63.3861854984241</v>
       </c>
       <c r="L8" t="n">
-        <v>54.11746546684</v>
+        <v>54.0183622108344</v>
       </c>
       <c r="M8" t="n">
         <v>87.5032786022504</v>
